--- a/Importación_GUIA/10. Importación_Transacción.xlsx
+++ b/Importación_GUIA/10. Importación_Transacción.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventarioV2\Importacion_Inventario_GUIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventarioV2\Importación_GUIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,22 +39,22 @@
     <t>Gustavo Guedez</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14062579</t>
+  </si>
+  <si>
+    <t>18344910</t>
+  </si>
+  <si>
+    <t>Prestamo</t>
+  </si>
+  <si>
+    <t>TM-2022-000001</t>
+  </si>
+  <si>
     <t>000001</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14062579</t>
-  </si>
-  <si>
-    <t>18344910</t>
-  </si>
-  <si>
-    <t>TM-2022-000001</t>
-  </si>
-  <si>
-    <t>Prestamo</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>2</v>
@@ -545,14 +545,14 @@
         <v>44585</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1 J1 F1 N1" numberStoredAsText="1"/>
+    <ignoredError sqref="J1 F1 N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Importación_GUIA/10. Importación_Transacción.xlsx
+++ b/Importación_GUIA/10. Importación_Transacción.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Importación_Transacción" sheetId="1" r:id="rId1"/>
+    <sheet name="Importación_Transacción_GUIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -39,6 +39,9 @@
     <t>Gustavo Guedez</t>
   </si>
   <si>
+    <t>000001</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -48,13 +51,10 @@
     <t>18344910</t>
   </si>
   <si>
-    <t>Prestamo</t>
-  </si>
-  <si>
     <t>TM-2022-000001</t>
   </si>
   <si>
-    <t>000001</t>
+    <t>Préstamo</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D6:D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>2</v>
@@ -545,14 +545,14 @@
         <v>44585</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J1 F1 N1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 J1 F1 N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Importación_GUIA/10. Importación_Transacción.xlsx
+++ b/Importación_GUIA/10. Importación_Transacción.xlsx
@@ -54,7 +54,7 @@
     <t>TM-2022-000001</t>
   </si>
   <si>
-    <t>Préstamo</t>
+    <t>Prestamo</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/Importación_GUIA/10. Importación_Transacción.xlsx
+++ b/Importación_GUIA/10. Importación_Transacción.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
